--- a/techniqo/data_new_ticker/JCHAC.xlsx
+++ b/techniqo/data_new_ticker/JCHAC.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1404"/>
+  <dimension ref="A1:G1406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49526,6 +49526,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1405">
+      <c r="A1405" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1405" t="n">
+        <v>2290</v>
+      </c>
+      <c r="C1405" t="n">
+        <v>2337.45</v>
+      </c>
+      <c r="D1405" t="n">
+        <v>2263.25</v>
+      </c>
+      <c r="E1405" t="n">
+        <v>2304.65</v>
+      </c>
+      <c r="F1405" t="n">
+        <v>19264</v>
+      </c>
+      <c r="G1405" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1406" t="n">
+        <v>2310</v>
+      </c>
+      <c r="C1406" t="n">
+        <v>2348.5</v>
+      </c>
+      <c r="D1406" t="n">
+        <v>2262.95</v>
+      </c>
+      <c r="E1406" t="n">
+        <v>2315.3</v>
+      </c>
+      <c r="F1406" t="n">
+        <v>11270</v>
+      </c>
+      <c r="G1406" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/JCHAC.xlsx
+++ b/techniqo/data_new_ticker/JCHAC.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1406"/>
+  <dimension ref="A1:G1408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49576,6 +49576,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1407">
+      <c r="A1407" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1407" t="n">
+        <v>2255.1</v>
+      </c>
+      <c r="C1407" t="n">
+        <v>2328.7</v>
+      </c>
+      <c r="D1407" t="n">
+        <v>2252.2</v>
+      </c>
+      <c r="E1407" t="n">
+        <v>2278.55</v>
+      </c>
+      <c r="F1407" t="n">
+        <v>4681</v>
+      </c>
+      <c r="G1407" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1408" t="n">
+        <v>2312.95</v>
+      </c>
+      <c r="C1408" t="n">
+        <v>2312.95</v>
+      </c>
+      <c r="D1408" t="n">
+        <v>2260</v>
+      </c>
+      <c r="E1408" t="n">
+        <v>2267.3</v>
+      </c>
+      <c r="F1408" t="n">
+        <v>3002</v>
+      </c>
+      <c r="G1408" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
